--- a/nmadb/476033.xlsx
+++ b/nmadb/476033.xlsx
@@ -1,6 +1,766 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Harm</t>
+  </si>
+  <si>
+    <t>Outcome:</t>
+  </si>
+  <si>
+    <t>fractures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black et al., 2007 </t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>placbeo</t>
+  </si>
+  <si>
+    <t>zoledronic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chesnut et al., 2005 </t>
+  </si>
+  <si>
+    <t>ibandronate</t>
+  </si>
+  <si>
+    <t>alendronate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberman et al., 1995 </t>
+  </si>
+  <si>
+    <t>risideronate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black et al., 1996 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cummings et al., 1998 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harris et al., 1999 </t>
+  </si>
+  <si>
+    <t>Reginster et al., 2000</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="AdvBerlingLTStd"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="34">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="18">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.49995422223578601"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="2"/>
+    <cellStyle name="20% - Accent2" xfId="3"/>
+    <cellStyle name="20% - Accent3" xfId="4"/>
+    <cellStyle name="20% - Accent4" xfId="5"/>
+    <cellStyle name="20% - Accent5" xfId="6"/>
+    <cellStyle name="20% - Accent6" xfId="7"/>
+    <cellStyle name="40% - Accent1" xfId="8"/>
+    <cellStyle name="40% - Accent2" xfId="9"/>
+    <cellStyle name="40% - Accent3" xfId="10"/>
+    <cellStyle name="40% - Accent4" xfId="11"/>
+    <cellStyle name="40% - Accent5" xfId="12"/>
+    <cellStyle name="40% - Accent6" xfId="13"/>
+    <cellStyle name="60% - Accent1" xfId="14"/>
+    <cellStyle name="60% - Accent2" xfId="15"/>
+    <cellStyle name="60% - Accent3" xfId="16"/>
+    <cellStyle name="60% - Accent4" xfId="17"/>
+    <cellStyle name="60% - Accent5" xfId="18"/>
+    <cellStyle name="60% - Accent6" xfId="19"/>
+    <cellStyle name="Accent1 2" xfId="20" customBuiltin="1"/>
+    <cellStyle name="Accent2 2" xfId="21" customBuiltin="1"/>
+    <cellStyle name="Accent3 2" xfId="22" customBuiltin="1"/>
+    <cellStyle name="Accent4 2" xfId="23" customBuiltin="1"/>
+    <cellStyle name="Accent5 2" xfId="24" customBuiltin="1"/>
+    <cellStyle name="Accent6 2" xfId="25" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="26"/>
+    <cellStyle name="Calculation" xfId="27"/>
+    <cellStyle name="Check Cell" xfId="28"/>
+    <cellStyle name="Explanatory Text" xfId="29"/>
+    <cellStyle name="Good" xfId="30"/>
+    <cellStyle name="Heading 1" xfId="31"/>
+    <cellStyle name="Heading 2" xfId="32"/>
+    <cellStyle name="Heading 3" xfId="33"/>
+    <cellStyle name="Heading 4" xfId="34"/>
+    <cellStyle name="Input" xfId="35"/>
+    <cellStyle name="Linked Cell" xfId="36"/>
+    <cellStyle name="Neutral" xfId="37"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Note" xfId="38"/>
+    <cellStyle name="Output" xfId="39"/>
+    <cellStyle name="Title" xfId="40"/>
+    <cellStyle name="Total 2" xfId="41" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="42"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +834,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +868,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +902,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +1037,436 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>310</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2853</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>92</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2822</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>73</v>
+      </c>
+      <c r="F4" s="7">
+        <v>975</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>37</v>
+      </c>
+      <c r="F5" s="7">
+        <v>977</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A6" s="3">
+        <v>1995</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7">
+        <v>355</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16">
+        <v>5</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="18">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7">
+        <v>526</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>145</v>
+      </c>
+      <c r="F8" s="7">
+        <v>965</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="18">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8">
+        <v>78</v>
+      </c>
+      <c r="F9" s="7">
+        <v>981</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>78</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2077</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="18">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2057</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>93</v>
+      </c>
+      <c r="F12" s="7">
+        <v>678</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="18">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7">
+        <v>696</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7">
+        <v>346</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="18">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7">
+        <v>344</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>